--- a/notebooks/MAPK8IP3/input/MAPK8IP3_NEDBA_individuals.xlsx
+++ b/notebooks/MAPK8IP3/input/MAPK8IP3_NEDBA_individuals.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/MAPK8IP3/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/MAPK8IP3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621CAF15-5AE8-9242-9E34-C7A0AFA72CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8AD41A-A2B3-0341-8FF6-E3A435476EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3340" windowWidth="28160" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="3340" windowWidth="57880" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="296">
   <si>
     <t>PMID</t>
   </si>
@@ -530,13 +543,391 @@
   </si>
   <si>
     <t>c.3439C&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:30612693</t>
+  </si>
+  <si>
+    <t>De Novo Variants in MAPK8IP3 Cause Intellectual Disability with Variable Brain Anomalies</t>
+  </si>
+  <si>
+    <t>Individual 6</t>
+  </si>
+  <si>
+    <t>Individual 7</t>
+  </si>
+  <si>
+    <t>Individual 8</t>
+  </si>
+  <si>
+    <t>Individual 9</t>
+  </si>
+  <si>
+    <t>Individual 10</t>
+  </si>
+  <si>
+    <t>Individual 11</t>
+  </si>
+  <si>
+    <t>Individual 12</t>
+  </si>
+  <si>
+    <t>Individual 13</t>
+  </si>
+  <si>
+    <t>P19Y</t>
+  </si>
+  <si>
+    <t>P4Y6M</t>
+  </si>
+  <si>
+    <t>P11Y</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>P6Y</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>P7Y6M</t>
+  </si>
+  <si>
+    <t>P14Y8M</t>
+  </si>
+  <si>
+    <t>c.79G&gt;T</t>
+  </si>
+  <si>
+    <t>c.111C&gt;G</t>
+  </si>
+  <si>
+    <t>Developmental regression</t>
+  </si>
+  <si>
+    <t>HP:0002376</t>
+  </si>
+  <si>
+    <t>Cerebral visual impairment</t>
+  </si>
+  <si>
+    <t>HP:0100704</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>Spastic paraplegia</t>
+  </si>
+  <si>
+    <t>HP:0001258</t>
+  </si>
+  <si>
+    <t>Intellectual disability, mild</t>
+  </si>
+  <si>
+    <t>HP:0001256</t>
+  </si>
+  <si>
+    <t>Intellectual disability, moderate</t>
+  </si>
+  <si>
+    <t>HP:0002342</t>
+  </si>
+  <si>
+    <t>Intellectual disability, severe</t>
+  </si>
+  <si>
+    <t>HP:0010864</t>
+  </si>
+  <si>
+    <t>Asthenia</t>
+  </si>
+  <si>
+    <t>Ataxia</t>
+  </si>
+  <si>
+    <t>Lower limb muscle weakness</t>
+  </si>
+  <si>
+    <t>Oromotor apraxia</t>
+  </si>
+  <si>
+    <t>Poor coordination</t>
+  </si>
+  <si>
+    <t>Unsteady gait</t>
+  </si>
+  <si>
+    <t>Cerebellar atrophy</t>
+  </si>
+  <si>
+    <t>Polymicrogyria</t>
+  </si>
+  <si>
+    <t>Dysplastic corpus callosum</t>
+  </si>
+  <si>
+    <t>Syringomyelia</t>
+  </si>
+  <si>
+    <t>CNS hypomyelination</t>
+  </si>
+  <si>
+    <t>Lateral ventricle dilatation</t>
+  </si>
+  <si>
+    <t>Subcortical U fiber lesion</t>
+  </si>
+  <si>
+    <t>Small hand</t>
+  </si>
+  <si>
+    <t>Hearing impairment</t>
+  </si>
+  <si>
+    <t>Myopic astigmatism</t>
+  </si>
+  <si>
+    <t>Finger clinodactyly</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>Slender finger</t>
+  </si>
+  <si>
+    <t>Kyphosis</t>
+  </si>
+  <si>
+    <t>Narrow palpebral fissure</t>
+  </si>
+  <si>
+    <t>Encopresis</t>
+  </si>
+  <si>
+    <t>Synophrys</t>
+  </si>
+  <si>
+    <t>Protruding ear</t>
+  </si>
+  <si>
+    <t>Hyperlordosis</t>
+  </si>
+  <si>
+    <t>Long face</t>
+  </si>
+  <si>
+    <t>Genu valgum</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>Hepatomegaly</t>
+  </si>
+  <si>
+    <t>Hypodontia</t>
+  </si>
+  <si>
+    <t>Microdontia</t>
+  </si>
+  <si>
+    <t>Full cheeks</t>
+  </si>
+  <si>
+    <t>Emotional lability</t>
+  </si>
+  <si>
+    <t>Truncal obesity</t>
+  </si>
+  <si>
+    <t>High palate</t>
+  </si>
+  <si>
+    <t>Compulsive behaviors</t>
+  </si>
+  <si>
+    <t>HP:0025406</t>
+  </si>
+  <si>
+    <t>HP:0001251</t>
+  </si>
+  <si>
+    <t>HP:0007340</t>
+  </si>
+  <si>
+    <t>HP:0007301</t>
+  </si>
+  <si>
+    <t>HP:0002370</t>
+  </si>
+  <si>
+    <t>HP:0002317</t>
+  </si>
+  <si>
+    <t>HP:0001272</t>
+  </si>
+  <si>
+    <t>HP:0002126</t>
+  </si>
+  <si>
+    <t>HP:0006989</t>
+  </si>
+  <si>
+    <t>HP:0003396</t>
+  </si>
+  <si>
+    <t>HP:0003429</t>
+  </si>
+  <si>
+    <t>HP:0006956</t>
+  </si>
+  <si>
+    <t>HP:6000995</t>
+  </si>
+  <si>
+    <t>HP:0200055</t>
+  </si>
+  <si>
+    <t>HP:0000365</t>
+  </si>
+  <si>
+    <t>HP:0500041</t>
+  </si>
+  <si>
+    <t>HP:0040019</t>
+  </si>
+  <si>
+    <t>HP:0002020</t>
+  </si>
+  <si>
+    <t>HP:0002650</t>
+  </si>
+  <si>
+    <t>HP:0001238</t>
+  </si>
+  <si>
+    <t>HP:0002808</t>
+  </si>
+  <si>
+    <t>HP:0045025</t>
+  </si>
+  <si>
+    <t>HP:0040183</t>
+  </si>
+  <si>
+    <t>HP:0000664</t>
+  </si>
+  <si>
+    <t>HP:0000411</t>
+  </si>
+  <si>
+    <t>HP:0003307</t>
+  </si>
+  <si>
+    <t>HP:0000276</t>
+  </si>
+  <si>
+    <t>HP:0002857</t>
+  </si>
+  <si>
+    <t>HP:0000486</t>
+  </si>
+  <si>
+    <t>HP:0002240</t>
+  </si>
+  <si>
+    <t>HP:0000668</t>
+  </si>
+  <si>
+    <t>HP:0000691</t>
+  </si>
+  <si>
+    <t>HP:0000293</t>
+  </si>
+  <si>
+    <t>HP:0000712</t>
+  </si>
+  <si>
+    <t>HP:0001956</t>
+  </si>
+  <si>
+    <t>HP:0000218</t>
+  </si>
+  <si>
+    <t>HP:0000722</t>
+  </si>
+  <si>
+    <t>c.65del</t>
+  </si>
+  <si>
+    <t>c.1201G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1334T&gt;C</t>
+  </si>
+  <si>
+    <t>c.1577G&gt;A</t>
+  </si>
+  <si>
+    <t>c.2985C&gt;G</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.4:c.65delG</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.4:c.79G&gt;T</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.5:c.111C&gt;G</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.6:c.1198G&gt;A</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.7:c.1331T&gt;C</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.8:c.1331T&gt;C</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.9:c.1574G&gt;A</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.10:c.1732C&gt;T</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.11:c.1732C&gt;T</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.12:c.2982C&gt;G</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.13:c.3436C&gt;T</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.14:c.3436C&gt;T</t>
+  </si>
+  <si>
+    <t>reported as NM_015133.15:c.3436C&gt;T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +939,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F4A85"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -596,14 +999,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,15 +1314,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:DG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="CS1" sqref="CS1:CS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,149 +1389,278 @@
       <c r="U1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1187,148 +1725,277 @@
         <v>86</v>
       </c>
       <c r="V2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" t="s">
+        <v>201</v>
+      </c>
+      <c r="X2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB2" t="s">
         <v>113</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AC2" t="s">
         <v>110</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AD2" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AE2" t="s">
         <v>105</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AF2" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AH2" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AJ2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AK2" t="s">
         <v>161</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AL2" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AM2" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AN2" t="s">
         <v>155</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
         <v>119</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AP2" t="s">
         <v>64</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AQ2" t="s">
         <v>91</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AR2" t="s">
         <v>121</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AS2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT2" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AU2" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AV2" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AW2" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AX2" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AY2" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AZ2" t="s">
         <v>71</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BA2" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BB2" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BC2" t="s">
         <v>74</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BD2" t="s">
         <v>75</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BE2" t="s">
         <v>76</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BF2" t="s">
         <v>77</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BG2" t="s">
         <v>80</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BH2" t="s">
         <v>78</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BI2" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BJ2" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BK2" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BL2" t="s">
         <v>126</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BM2" t="s">
         <v>128</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BN2" t="s">
         <v>130</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BO2" t="s">
         <v>132</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BP2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BQ2" t="s">
         <v>159</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BR2" t="s">
         <v>157</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BS2" t="s">
         <v>134</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BT2" t="s">
         <v>136</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BU2" t="s">
         <v>138</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BV2" t="s">
         <v>165</v>
       </c>
+      <c r="BW2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>270</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>271</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>272</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>274</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>275</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>276</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1383,50 +2050,35 @@
       <c r="U3" t="s">
         <v>84</v>
       </c>
-      <c r="V3" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>89</v>
-      </c>
       <c r="AB3" t="s">
         <v>89</v>
       </c>
+      <c r="AC3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>89</v>
+      </c>
       <c r="AG3" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>89</v>
+      <c r="AH3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
       </c>
       <c r="AQ3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AT3" t="s">
         <v>89</v>
@@ -1434,9 +2086,6 @@
       <c r="AU3" t="s">
         <v>89</v>
       </c>
-      <c r="AV3" t="s">
-        <v>89</v>
-      </c>
       <c r="AW3" t="s">
         <v>89</v>
       </c>
@@ -1449,11 +2098,29 @@
       <c r="AZ3" t="s">
         <v>89</v>
       </c>
+      <c r="BA3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>89</v>
+      </c>
       <c r="BD3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:111" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1484,7 +2151,7 @@
       <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>166</v>
       </c>
       <c r="M4" t="s">
@@ -1508,75 +2175,75 @@
       <c r="T4" t="s">
         <v>111</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AC4" t="s">
         <v>106</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AD4" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AE4" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AF4" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AG4" t="s">
         <v>106</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AL4" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AO4" t="s">
         <v>117</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AR4" t="s">
         <v>117</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AY4" t="s">
         <v>117</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BJ4" t="s">
         <v>103</v>
       </c>
-      <c r="BE4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP4" t="s">
         <v>114</v>
       </c>
-      <c r="BM4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="BS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E5" t="s">
@@ -1603,10 +2270,10 @@
       <c r="L5" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>149</v>
       </c>
       <c r="O5" t="s">
@@ -1631,89 +2298,89 @@
         <v>84</v>
       </c>
       <c r="Z5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s">
         <v>84</v>
       </c>
       <c r="AH5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
         <v>84</v>
       </c>
       <c r="AN5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AT5" t="s">
         <v>89</v>
       </c>
       <c r="AU5" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>89</v>
       </c>
       <c r="AW5" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>89</v>
       </c>
       <c r="BA5" t="s">
         <v>84</v>
       </c>
-      <c r="BB5" t="s">
-        <v>89</v>
-      </c>
       <c r="BC5" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>89</v>
+      <c r="BG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>84</v>
       </c>
       <c r="BP5" t="s">
         <v>84</v>
       </c>
+      <c r="BQ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E6" t="s">
@@ -1740,10 +2407,10 @@
       <c r="L6" t="s">
         <v>147</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>150</v>
       </c>
       <c r="O6" t="s">
@@ -1768,89 +2435,89 @@
         <v>84</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AF6" t="s">
         <v>84</v>
       </c>
       <c r="AH6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s">
         <v>84</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AJ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s">
         <v>84</v>
       </c>
       <c r="AN6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AT6" t="s">
         <v>89</v>
       </c>
       <c r="AU6" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>89</v>
       </c>
       <c r="AW6" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>89</v>
       </c>
       <c r="BA6" t="s">
         <v>84</v>
       </c>
-      <c r="BB6" t="s">
-        <v>89</v>
-      </c>
       <c r="BC6" t="s">
         <v>84</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>89</v>
+      <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
       </c>
       <c r="BP6" t="s">
         <v>84</v>
       </c>
+      <c r="BQ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E7" t="s">
@@ -1877,10 +2544,10 @@
       <c r="L7" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>151</v>
       </c>
       <c r="O7" t="s">
@@ -1905,86 +2572,86 @@
         <v>84</v>
       </c>
       <c r="Z7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE7" t="s">
         <v>89</v>
       </c>
       <c r="AF7" t="s">
         <v>84</v>
       </c>
       <c r="AH7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s">
         <v>84</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AJ7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL7" t="s">
         <v>84</v>
       </c>
       <c r="AN7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AR7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AT7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AU7" t="s">
         <v>89</v>
       </c>
+      <c r="AV7" t="s">
+        <v>89</v>
+      </c>
       <c r="AW7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>84</v>
       </c>
       <c r="BA7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB7" t="s">
         <v>89</v>
       </c>
       <c r="BC7" t="s">
         <v>84</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>89</v>
+      <c r="BG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>84</v>
       </c>
       <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E8" t="s">
@@ -2002,7 +2669,7 @@
       <c r="I8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>169</v>
       </c>
       <c r="K8" t="s">
@@ -2011,10 +2678,10 @@
       <c r="L8" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>152</v>
       </c>
       <c r="O8" t="s">
@@ -2041,18 +2708,6 @@
       <c r="Z8" t="s">
         <v>84</v>
       </c>
-      <c r="AB8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>89</v>
-      </c>
       <c r="AF8" t="s">
         <v>84</v>
       </c>
@@ -2060,65 +2715,77 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>89</v>
+        <v>89</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
       </c>
       <c r="AN8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AR8" t="s">
         <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AU8" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>89</v>
       </c>
       <c r="AW8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>84</v>
       </c>
       <c r="BA8" t="s">
         <v>84</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH8" t="s">
         <v>139</v>
       </c>
-      <c r="BC8" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>84</v>
+      <c r="BI8" t="s">
+        <v>89</v>
       </c>
       <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:111" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>146</v>
       </c>
       <c r="E9" t="s">
@@ -2136,7 +2803,7 @@
       <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>169</v>
       </c>
       <c r="K9" t="s">
@@ -2145,10 +2812,10 @@
       <c r="L9" t="s">
         <v>148</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="O9" t="s">
@@ -2175,18 +2842,6 @@
       <c r="Z9" t="s">
         <v>84</v>
       </c>
-      <c r="AB9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>84</v>
-      </c>
       <c r="AF9" t="s">
         <v>84</v>
       </c>
@@ -2194,23 +2849,20 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
         <v>84</v>
       </c>
       <c r="AN9" t="s">
         <v>84</v>
       </c>
-      <c r="AO9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>84</v>
-      </c>
       <c r="AR9" t="s">
         <v>84</v>
       </c>
@@ -2218,34 +2870,3044 @@
         <v>84</v>
       </c>
       <c r="AU9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV9" t="s">
         <v>84</v>
       </c>
       <c r="AW9" t="s">
         <v>84</v>
       </c>
+      <c r="AX9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
       <c r="BA9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH9" t="s">
         <v>139</v>
       </c>
-      <c r="BC9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>84</v>
+      <c r="BI9" t="s">
+        <v>89</v>
       </c>
       <c r="BP9" t="s">
-        <v>89</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>283</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>284</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>286</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>187</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W13" t="s">
+        <v>89</v>
+      </c>
+      <c r="X13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>280</v>
+      </c>
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" t="s">
+        <v>288</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" t="s">
+        <v>89</v>
+      </c>
+      <c r="X15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>289</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" t="s">
+        <v>84</v>
+      </c>
+      <c r="W16" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>291</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>292</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" t="s">
+        <v>84</v>
+      </c>
+      <c r="U19" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" t="s">
+        <v>89</v>
+      </c>
+      <c r="W19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" t="s">
+        <v>84</v>
+      </c>
+      <c r="V20" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" t="s">
+        <v>89</v>
+      </c>
+      <c r="W21" t="s">
+        <v>89</v>
+      </c>
+      <c r="X21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF21" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>295</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" t="s">
+        <v>89</v>
+      </c>
+      <c r="W22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>84</v>
+      </c>
+      <c r="DF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="DG22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J43" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>